--- a/RAW_PUBLIC/DecemberSales2023_public.xlsx
+++ b/RAW_PUBLIC/DecemberSales2023_public.xlsx
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0003552</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0003553</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -661,7 +661,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0003553</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -730,7 +730,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0003553</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -799,7 +799,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0003553</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0003554</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -941,7 +941,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0003555</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0003556</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1079,7 +1079,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0003556</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1148,7 +1148,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0003557</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1217,7 +1217,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0003557</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1286,7 +1286,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0003558</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1355,7 +1355,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0003559</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1424,7 +1424,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0003560</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0003561</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1566,7 +1566,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0003562</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1635,7 +1635,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0003563</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0003564</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0003565</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0003566</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1911,7 +1911,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0003567</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1980,7 +1980,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0003568</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2053,7 +2053,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0003568</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2126,7 +2126,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0003569</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2195,7 +2195,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0003570</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2264,7 +2264,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0003571</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2333,7 +2333,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0003572</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2402,7 +2402,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0003573</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2471,7 +2471,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0003574</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2540,7 +2540,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0003575</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2609,7 +2609,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0003576</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2682,7 +2682,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0003577</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2751,7 +2751,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0003578</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2820,7 +2820,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0003579</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2893,7 +2893,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0003580</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2962,7 +2962,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0003581</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3031,7 +3031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0003581</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3100,7 +3100,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0003581</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3169,7 +3169,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0003582</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3238,7 +3238,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0003583</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3307,7 +3307,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0003584</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0003584</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3445,7 +3445,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0003584</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3514,7 +3514,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0003585</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3583,7 +3583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0003585</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3652,7 +3652,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0003585</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3721,7 +3721,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0003586</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3790,7 +3790,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0003587</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3859,7 +3859,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0003588</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3928,7 +3928,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0003588</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3997,7 +3997,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0003589</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4066,7 +4066,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0003590</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4135,7 +4135,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0003591</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4208,7 +4208,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0003592</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4281,7 +4281,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0003593</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4350,7 +4350,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0003594</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4419,7 +4419,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0003595</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4492,7 +4492,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0003595</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4565,7 +4565,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0003595</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4638,7 +4638,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0003596</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4707,7 +4707,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0003596</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4776,7 +4776,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0003597</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4845,7 +4845,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0003598</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4914,7 +4914,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0003599</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4983,7 +4983,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0003599</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5052,7 +5052,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0003600</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5125,7 +5125,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0003600</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5198,7 +5198,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0003600</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5271,7 +5271,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0003601</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5340,7 +5340,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0003602</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5409,7 +5409,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0003603</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5478,7 +5478,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0003604</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5547,7 +5547,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0003605</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5620,7 +5620,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0003606</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5689,7 +5689,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0003607</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5758,7 +5758,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0003608</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0003609</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5900,7 +5900,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0003609</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5969,7 +5969,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0003610</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6038,7 +6038,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0003611</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6107,7 +6107,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0003611</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6176,7 +6176,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0003612</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6245,7 +6245,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0003613</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0003614</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6387,7 +6387,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0003615</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6460,7 +6460,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0003616</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6533,7 +6533,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0003616</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6606,7 +6606,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0003616</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6679,7 +6679,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0003617</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6748,7 +6748,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0003617</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6817,7 +6817,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0003618</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6886,7 +6886,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0003619</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6959,7 +6959,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0003620</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7028,7 +7028,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0003621</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7101,7 +7101,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0003622</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7170,7 +7170,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0003623</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7239,7 +7239,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0003624</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7308,7 +7308,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0003625</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7377,7 +7377,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0003626</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7446,7 +7446,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0003626</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7515,7 +7515,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0003626</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7584,7 +7584,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0003627</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7653,7 +7653,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0003628</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7726,7 +7726,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0003628</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7799,7 +7799,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0003629</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7868,7 +7868,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0003630</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7937,7 +7937,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0003631</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8006,7 +8006,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0003632</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8079,7 +8079,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0003633</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8148,7 +8148,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0003634</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8221,7 +8221,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0003635</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -8290,7 +8290,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0003635</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8359,7 +8359,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0003636</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8432,7 +8432,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0003637</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8501,7 +8501,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0003638</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8570,7 +8570,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0003638</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8639,7 +8639,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0003638</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -8708,7 +8708,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0003639</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8777,7 +8777,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0003640</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -8846,7 +8846,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0003641</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -8915,7 +8915,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0003641</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -8984,7 +8984,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0003641</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9053,7 +9053,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0003641</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9122,7 +9122,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0003641</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -9191,7 +9191,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0003641</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -9260,7 +9260,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0003641</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -9329,7 +9329,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0003641</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -9398,7 +9398,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0003641</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9467,7 +9467,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0003641</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -9536,7 +9536,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0003641</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9605,7 +9605,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0003642</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9678,7 +9678,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0003643</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -9751,7 +9751,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0003644</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -9820,7 +9820,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0003645</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -9893,7 +9893,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0003646</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -9966,7 +9966,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0003647</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10035,7 +10035,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0003648</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -10104,7 +10104,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0003649</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -10173,7 +10173,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0003650</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -10246,7 +10246,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0003651</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -10315,7 +10315,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0003651</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -10384,7 +10384,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0003652</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -10453,7 +10453,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0003653</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -10522,7 +10522,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0003654</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -10591,7 +10591,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0003654</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -10660,7 +10660,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0003655</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -10729,7 +10729,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0003656</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -10798,7 +10798,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0003657</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -10867,7 +10867,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0003657</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -10936,7 +10936,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0003657</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -11005,7 +11005,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0003657</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -11074,7 +11074,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0003657</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -11143,7 +11143,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0003657</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -11212,7 +11212,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0003658</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -11281,7 +11281,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0003659</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -11350,7 +11350,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0003660</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -11419,7 +11419,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0003661</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -11488,7 +11488,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0003662</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -11557,7 +11557,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0003663</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -11626,7 +11626,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0003664</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -11695,7 +11695,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0003665</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -11764,7 +11764,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0003666</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -11833,7 +11833,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0003667</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -11902,7 +11902,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0003667</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -11971,7 +11971,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0003668</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -12040,7 +12040,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0003669</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -12113,7 +12113,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0003669</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -12186,7 +12186,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0003669</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -12259,7 +12259,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0003670</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -12328,7 +12328,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0003670</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -12397,7 +12397,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0003671</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -12470,7 +12470,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0003671</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -12543,7 +12543,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0003672</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -12612,7 +12612,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0003673</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -12685,7 +12685,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0003674</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -12758,7 +12758,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0003675</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -12827,7 +12827,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0003676</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -12896,7 +12896,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0003677</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -12965,7 +12965,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0003678</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -13034,7 +13034,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0003679</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -13103,7 +13103,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0003680</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -13172,7 +13172,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0003680</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -13241,7 +13241,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0003680</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -13310,7 +13310,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0003681</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -13379,7 +13379,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0003682</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -13448,7 +13448,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0003683</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -13517,7 +13517,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0003684</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -13586,7 +13586,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0003685</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -13655,7 +13655,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0003686</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -13724,7 +13724,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0003687</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -13797,7 +13797,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0003688</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -13870,7 +13870,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0003689</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -13939,7 +13939,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0003690</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -14008,7 +14008,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0003690</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -14077,7 +14077,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0003691</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -14150,7 +14150,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0003692</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -14219,7 +14219,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0003693</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -14292,7 +14292,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0003694</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -14361,7 +14361,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0003695</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -14430,7 +14430,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0003695</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -14499,7 +14499,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0003696</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -14568,7 +14568,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0003697</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -14637,7 +14637,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0003698</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -14706,7 +14706,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0003699</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -14779,7 +14779,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0003700</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -14848,7 +14848,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0003701</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -14917,7 +14917,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0003702</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -14986,7 +14986,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0003703</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -15059,7 +15059,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0003703</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -15132,7 +15132,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0003703</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -15205,7 +15205,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0003703</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -15278,7 +15278,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0003703</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -15351,7 +15351,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0003704</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -15420,7 +15420,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0003705</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -15493,7 +15493,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0003706</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -15562,7 +15562,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0003707</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -15631,7 +15631,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0003708</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -15700,7 +15700,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0003709</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -15769,7 +15769,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0003710</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -15838,7 +15838,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0003711</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -15907,7 +15907,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0003712</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -15976,7 +15976,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0003713</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -16045,7 +16045,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0003714</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -16114,7 +16114,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0003715</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -16183,7 +16183,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0003716</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -16252,7 +16252,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0003717</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -16321,7 +16321,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0003718</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -16390,7 +16390,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0003719</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -16459,7 +16459,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0003720</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -16528,7 +16528,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0003721</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -16597,7 +16597,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0003721</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -16666,7 +16666,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0003721</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -16735,7 +16735,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0003722</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -16804,7 +16804,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0003723</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -16873,7 +16873,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0003724</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -16942,7 +16942,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0003725</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -17011,7 +17011,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0003725</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -17080,7 +17080,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0003726</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -17149,7 +17149,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0003727</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -17218,7 +17218,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0003728</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -17287,7 +17287,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0003729</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -17356,7 +17356,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0003730</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -17425,7 +17425,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0003730</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -17494,7 +17494,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0003731</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -17563,7 +17563,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0003732</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -17636,7 +17636,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0003733</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -17705,7 +17705,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0003734</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -17778,7 +17778,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0003735</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -17847,7 +17847,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0003736</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -17916,7 +17916,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0003737</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -17985,7 +17985,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0003738</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -18054,7 +18054,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0003738</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -18123,7 +18123,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0003739</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -18192,7 +18192,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0003740</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -18261,7 +18261,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0003741</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -18330,7 +18330,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0003742</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -18399,7 +18399,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0003742</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -18468,7 +18468,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0003743</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -18537,7 +18537,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0003744</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -18606,7 +18606,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0003745</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -18675,7 +18675,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0003746</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -18744,7 +18744,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0003747</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -18817,7 +18817,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0003748</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -18886,7 +18886,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0003748</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -18955,7 +18955,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0003748</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -19024,7 +19024,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0003749</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -19097,7 +19097,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0003749</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -19170,7 +19170,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0003749</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -19243,7 +19243,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0003749</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -19316,7 +19316,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0003749</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -19389,7 +19389,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0003749</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -19462,7 +19462,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0003749</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -19535,7 +19535,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0003750</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -19604,7 +19604,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0003751</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -19673,7 +19673,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0003752</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -19742,7 +19742,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0003752</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -19811,7 +19811,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0003753</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -19880,7 +19880,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0003753</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -19949,7 +19949,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0003754</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -20018,7 +20018,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0003755</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -20087,7 +20087,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0003756</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -20156,7 +20156,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0003757</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -20225,7 +20225,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0003758</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -20294,7 +20294,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0003759</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -20363,7 +20363,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0003759</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -20432,7 +20432,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0003760</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -20501,7 +20501,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0003761</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -20570,7 +20570,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0003762</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -20639,7 +20639,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0003763</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -20708,7 +20708,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0003764</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -20777,7 +20777,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0003765</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -20846,7 +20846,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0003765</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -20915,7 +20915,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0003766</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -20984,7 +20984,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0003766</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -21053,7 +21053,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0003767</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -21122,7 +21122,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0003768</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -21195,7 +21195,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0003769</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -21264,7 +21264,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0003770</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -21337,7 +21337,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0003771</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -21406,7 +21406,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0003772</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -21475,7 +21475,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0003773</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -21548,7 +21548,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0003774</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -21617,7 +21617,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0003775</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -21686,7 +21686,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0003776</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -21755,7 +21755,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0003777</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -21828,7 +21828,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0003778</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -21897,7 +21897,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0003779</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -21966,7 +21966,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0003780</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -22035,7 +22035,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0003781</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -22108,7 +22108,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0003782</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -22177,7 +22177,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0003783</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -22246,7 +22246,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0003784</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -22315,7 +22315,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0003784</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -22384,7 +22384,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0003785</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -22453,7 +22453,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0003786</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -22522,7 +22522,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0003787</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -22591,7 +22591,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0003788</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -22660,7 +22660,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0003789</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -22733,7 +22733,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0003789</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -22806,7 +22806,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0003789</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -22879,7 +22879,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0003789</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -22952,7 +22952,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0003790</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -23025,7 +23025,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0003791</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -23098,7 +23098,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0003792</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -23167,7 +23167,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0003793</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -23236,7 +23236,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0003794</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -23305,7 +23305,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0003795</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -23374,7 +23374,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0003796</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -23443,7 +23443,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0003797</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -23512,7 +23512,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0003797</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -23581,7 +23581,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0003798</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -23650,7 +23650,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0003799</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -23723,7 +23723,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0003800</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -23792,7 +23792,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0003801</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -23861,7 +23861,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0003802</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -23934,7 +23934,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0003803</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -24003,7 +24003,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0003804</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -24076,7 +24076,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0003805</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -24145,7 +24145,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0003806</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -24214,7 +24214,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0003806</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -24283,7 +24283,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0003807</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -24352,7 +24352,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0003808</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -24421,7 +24421,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0003809</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -24490,7 +24490,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0003810</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -24559,7 +24559,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0003811</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -24628,7 +24628,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0003812</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -24701,7 +24701,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0003813</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -24774,7 +24774,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0003814</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -24847,7 +24847,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0003815</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -24916,7 +24916,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0003816</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -24989,7 +24989,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0003817</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -25062,7 +25062,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0003818</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -25131,7 +25131,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0003819</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -25200,7 +25200,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0003819</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -25269,7 +25269,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0003820</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -25338,7 +25338,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0003821</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -25407,7 +25407,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0003822</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -25476,7 +25476,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0003823</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -25545,7 +25545,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0003823</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -25614,7 +25614,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0003824</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -25683,7 +25683,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0003825</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -25752,7 +25752,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0003826</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -25821,7 +25821,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0003827</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -25894,7 +25894,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0003828</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -25963,7 +25963,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0003829</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -26032,7 +26032,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0003830</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -26101,7 +26101,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0003831</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -26170,7 +26170,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0003832</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -26243,7 +26243,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0003833</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -26316,7 +26316,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0003834</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -26385,7 +26385,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0003835</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -26454,7 +26454,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0003836</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -26523,7 +26523,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0003837</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -26592,7 +26592,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0003838</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -26661,7 +26661,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0003839</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -26730,7 +26730,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0003839</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -26799,7 +26799,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0003840</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -26868,7 +26868,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0003841</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -26937,7 +26937,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0003841</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -27006,7 +27006,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0003841</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -27075,7 +27075,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0003842</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -27144,7 +27144,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0003843</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -27213,7 +27213,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0003843</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -27282,7 +27282,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0003843</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -27351,7 +27351,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0003844</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -27420,7 +27420,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0003845</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -27489,7 +27489,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0003846</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -27558,7 +27558,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0003847</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -27627,7 +27627,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0003848</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -27696,7 +27696,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0003849</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -27765,7 +27765,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0003850</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -27838,7 +27838,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0003850</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -27911,7 +27911,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0003851</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -27984,7 +27984,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0003852</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -28053,7 +28053,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0003853</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -28122,7 +28122,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0003854</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -28191,7 +28191,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0003855</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -28260,7 +28260,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0003856</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -28329,7 +28329,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0003857</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -28398,7 +28398,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0003858</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -28467,7 +28467,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0003859</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -28536,7 +28536,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0003860</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -28605,7 +28605,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0003861</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -28674,7 +28674,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0003862</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -28747,7 +28747,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0003862</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -28820,7 +28820,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0003863</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -28889,7 +28889,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0003864</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -28958,7 +28958,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0003865</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -29027,7 +29027,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0003866</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -29096,7 +29096,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0003866</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -29165,7 +29165,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0003866</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -29234,7 +29234,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0003867</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -29303,7 +29303,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0003868</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -29376,7 +29376,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0003869</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -29445,7 +29445,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0003870</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -29514,7 +29514,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0003871</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -29587,7 +29587,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0003872</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -29656,7 +29656,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0003873</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -29725,7 +29725,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0003874</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -29794,7 +29794,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0003875</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -29863,7 +29863,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0003875</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -29932,7 +29932,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0003876</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -30001,7 +30001,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0003877</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -30070,7 +30070,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0003877</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -30139,7 +30139,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0003878</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -30212,7 +30212,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0003879</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -30281,7 +30281,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0003880</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -30350,7 +30350,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0003881</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -30419,7 +30419,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0003882</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -30488,7 +30488,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0003883</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -30557,7 +30557,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0003884</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -30626,7 +30626,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0003884</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -30695,7 +30695,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0003884</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -30764,7 +30764,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0003884</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -30833,7 +30833,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0003884</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -30902,7 +30902,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0003885</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -30971,7 +30971,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0003886</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -31040,7 +31040,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0003887</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -31109,7 +31109,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0003888</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -31178,7 +31178,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0003889</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -31247,7 +31247,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0003889</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -31316,7 +31316,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0003889</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -31385,7 +31385,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0003890</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -31458,7 +31458,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0003891</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -31531,7 +31531,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0003891</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -31604,7 +31604,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0003891</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -31677,7 +31677,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0003891</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -31750,7 +31750,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0003892</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -31819,7 +31819,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0003893</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -31888,7 +31888,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0003894</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -31957,7 +31957,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0003895</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -32026,7 +32026,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0003895</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -32095,7 +32095,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0003895</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -32164,7 +32164,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0003895</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -32233,7 +32233,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0003895</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -32302,7 +32302,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0003896</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -32371,7 +32371,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0003897</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -32440,7 +32440,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0003898</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -32509,7 +32509,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0003898</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -32578,7 +32578,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0003898</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -32647,7 +32647,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0003898</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -32716,7 +32716,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0003899</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -32789,7 +32789,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0003900</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -32858,7 +32858,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0003901</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -32927,7 +32927,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0003902</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -33000,7 +33000,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0003903</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -33073,7 +33073,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0003903</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -33146,7 +33146,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0003904</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -33215,7 +33215,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0003904</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -33284,7 +33284,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0003905</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -33353,7 +33353,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0003906</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -33422,7 +33422,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0003907</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -33491,7 +33491,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0003908</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -33560,7 +33560,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0003909</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -33629,7 +33629,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0003910</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -33698,7 +33698,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0003911</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -33767,7 +33767,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0003911</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -33836,7 +33836,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0003912</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -33905,7 +33905,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0003913</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -33974,7 +33974,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0003914</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -34043,7 +34043,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0003914</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -34112,7 +34112,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0003914</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -34181,7 +34181,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0003915</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -34250,7 +34250,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0003916</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -34319,7 +34319,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0003917</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -34392,7 +34392,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0003918</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -34461,7 +34461,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0003919</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -34534,7 +34534,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0003920</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -34603,7 +34603,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0003920</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -34672,7 +34672,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0003920</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -34741,7 +34741,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0003921</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -34810,7 +34810,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0003922</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -34879,7 +34879,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0003923</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -34948,7 +34948,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0003924</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -35021,7 +35021,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0003924</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -35094,7 +35094,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0003924</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -35167,7 +35167,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0003925</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -35236,7 +35236,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0003925</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -35305,7 +35305,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0003925</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -35374,7 +35374,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0003926</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -35443,7 +35443,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0003927</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -35512,7 +35512,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0003928</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -35581,7 +35581,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0003929</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -35654,7 +35654,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0003930</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -35723,7 +35723,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0003931</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -35792,7 +35792,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0003932</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -35865,7 +35865,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0003933</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -35938,7 +35938,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0003934</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -36011,7 +36011,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0003935</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -36084,7 +36084,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0003936</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -36153,7 +36153,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0003937</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -36222,7 +36222,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0003938</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -36295,7 +36295,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0003939</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -36364,7 +36364,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0003940</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -36433,7 +36433,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0003941</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -36502,7 +36502,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0003942</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -36571,7 +36571,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0003943</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -36640,7 +36640,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0003944</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -36709,7 +36709,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0003944</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -36778,7 +36778,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0003944</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -36847,7 +36847,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0003945</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -36916,7 +36916,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0003946</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -36985,7 +36985,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0003947</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -37054,7 +37054,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0003948</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -37123,7 +37123,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0003949</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -37192,7 +37192,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0003950</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -37261,7 +37261,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0003951</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -37330,7 +37330,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0003952</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -37399,7 +37399,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0003953</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -37468,7 +37468,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0003954</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -37541,7 +37541,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0003955</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -37610,7 +37610,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0003956</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -37683,7 +37683,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0003957</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -37752,7 +37752,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0003958</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -37825,7 +37825,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0003959</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -37894,7 +37894,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0003959</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -37963,7 +37963,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0003960</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -38036,7 +38036,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0003961</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -38109,7 +38109,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0003962</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -38178,7 +38178,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0003963</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -38247,7 +38247,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0003963</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -38316,7 +38316,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0003964</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -38385,7 +38385,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0003964</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -38454,7 +38454,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0003964</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -38523,7 +38523,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0003965</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -38596,7 +38596,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0003966</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -38665,7 +38665,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0003967</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -38734,7 +38734,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0003967</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -38803,7 +38803,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0003968</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -38872,7 +38872,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0003969</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -38941,7 +38941,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0003970</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -39014,7 +39014,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0003970</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -39087,7 +39087,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0003971</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -39156,7 +39156,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0003971</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -39225,7 +39225,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0003972</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -39298,7 +39298,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0003973</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -39367,7 +39367,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0003974</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -39436,7 +39436,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0003974</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -39505,7 +39505,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0003974</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -39574,7 +39574,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0003974</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -39643,7 +39643,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0003975</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -39712,7 +39712,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0003976</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -39781,7 +39781,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0003977</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -39850,7 +39850,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0003978</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -39919,7 +39919,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0003979</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -39988,7 +39988,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0003980</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -40057,7 +40057,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0003981</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -40126,7 +40126,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0003982</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -40195,7 +40195,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0003982</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -40264,7 +40264,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0003982</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -40333,7 +40333,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0003982</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -40402,7 +40402,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0003982</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -40471,7 +40471,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0003982</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -40540,7 +40540,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0003982</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -40609,7 +40609,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ORD_0000432</t>
+          <t>ORD_0003983</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -40678,7 +40678,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0003984</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -40747,7 +40747,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0003984</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -40816,7 +40816,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0003984</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -40885,7 +40885,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>ORD_0000434</t>
+          <t>ORD_0003985</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -40954,7 +40954,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ORD_0000435</t>
+          <t>ORD_0003986</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -41027,7 +41027,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ORD_0000436</t>
+          <t>ORD_0003987</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -41096,7 +41096,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>ORD_0000437</t>
+          <t>ORD_0003988</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -41165,7 +41165,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>ORD_0000438</t>
+          <t>ORD_0003989</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -41234,7 +41234,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0003990</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -41307,7 +41307,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0003991</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -41380,7 +41380,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0003992</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -41449,7 +41449,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ORD_0000442</t>
+          <t>ORD_0003993</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -41522,7 +41522,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0003994</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -41591,7 +41591,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0003995</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -41664,7 +41664,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0003995</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -41737,7 +41737,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0003995</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
